--- a/inst/tabelas_depara/depara_calibre.xlsx
+++ b/inst/tabelas_depara/depara_calibre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wamorim/Documents/institutosoudapaz/isdp.armas/inst/tabelas_depara/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F339AA-8867-5A4E-9201-C46A9F9FF468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E01610D-5922-034E-855B-BC0CD34BE296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="500" windowWidth="33720" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="2320" windowWidth="33720" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4629" uniqueCount="1887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="1888">
   <si>
     <t>calibre</t>
   </si>
@@ -5696,6 +5696,9 @@
   </si>
   <si>
     <t>7.65 Parabellum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.357 SIG </t>
   </si>
 </sst>
 </file>
@@ -6037,10 +6040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1955"/>
+  <dimension ref="A1:C1960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1912" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1943" sqref="C1943"/>
+    <sheetView tabSelected="1" topLeftCell="A1936" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1973" sqref="D1973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23832,19 +23835,74 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="1953" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1953" t="s">
         <v>1879</v>
       </c>
     </row>
-    <row r="1954" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1954" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="1955" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1955" t="s">
         <v>1881</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1956" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1956" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1957" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1957" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1957" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1958" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1958" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C1958" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1959" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1960" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
